--- a/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -658,16 +658,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -722,16 +722,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -763,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1042,16 +1042,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1202,16 +1202,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>16</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -1237,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1307,7 +1307,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1339,7 +1339,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1467,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -1499,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -1563,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -1627,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -1650,16 +1650,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1746,7 +1746,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -1778,16 +1778,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1851,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -1883,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1947,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1979,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -2011,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -2043,7 +2043,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -2066,16 +2066,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -2107,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -2130,16 +2130,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2194,16 +2194,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -2226,16 +2226,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -2258,16 +2258,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2376,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2431,16 +2431,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2495,16 +2495,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>13</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2600,7 +2600,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2632,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2664,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -2696,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2911,16 +2911,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2975,16 +2975,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -3080,7 +3080,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3208,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3240,7 +3240,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3272,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3304,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3336,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3400,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3423,16 +3423,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -3464,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3528,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3551,16 +3551,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -3592,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3624,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -3656,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3720,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3752,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3784,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -3816,7 +3816,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -3880,7 +3880,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -3903,16 +3903,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3967,16 +3967,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -3999,16 +3999,16 @@
         <v>61</v>
       </c>
       <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
         <v>13</v>
       </c>
-      <c r="C53">
-        <v>12</v>
-      </c>
       <c r="D53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -4031,16 +4031,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -4149,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4181,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4204,16 +4204,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4268,16 +4268,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>13</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4309,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4373,7 +4373,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -4405,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4437,7 +4437,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4469,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4684,16 +4684,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4748,16 +4748,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -4853,7 +4853,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4917,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -5013,7 +5013,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -5045,7 +5045,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -5077,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -5109,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -5141,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -5173,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -5196,16 +5196,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -5237,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5324,16 +5324,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -5365,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -5429,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -5461,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -5525,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5557,7 +5557,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -5589,7 +5589,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -5621,7 +5621,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -5676,16 +5676,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>11</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5740,16 +5740,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -5772,16 +5772,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -5804,16 +5804,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -5845,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5922,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5954,7 +5954,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5977,16 +5977,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6041,16 +6041,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>136</v>
@@ -6082,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6114,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6146,7 +6146,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6210,7 +6210,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -6242,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -6274,7 +6274,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6457,16 +6457,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6521,16 +6521,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>153</v>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6594,7 +6594,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -6626,7 +6626,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6690,7 +6690,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6786,7 +6786,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -6818,7 +6818,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -6850,7 +6850,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6882,7 +6882,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -6946,7 +6946,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -6969,16 +6969,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>119</v>
@@ -7010,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7074,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -7097,16 +7097,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -7138,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -7170,7 +7170,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -7202,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -7234,7 +7234,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -7266,7 +7266,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -7298,7 +7298,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7330,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -7362,7 +7362,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -7394,7 +7394,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -7426,7 +7426,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -7449,16 +7449,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D50">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>15</v>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -7513,16 +7513,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>12</v>
@@ -7545,16 +7545,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>169</v>
@@ -7577,16 +7577,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -7695,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7727,7 +7727,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7750,16 +7750,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7814,16 +7814,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>136</v>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7887,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7919,7 +7919,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -7951,7 +7951,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -8015,7 +8015,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -8047,7 +8047,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -8079,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8111,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -8207,7 +8207,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8294,16 +8294,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>153</v>
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -8367,7 +8367,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8399,7 +8399,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -8559,7 +8559,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -8591,7 +8591,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8655,7 +8655,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -8719,7 +8719,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -8742,16 +8742,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>17</v>
       </c>
       <c r="D35">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>119</v>
@@ -8783,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8870,16 +8870,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -8911,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -8943,7 +8943,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -8975,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -9007,7 +9007,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -9039,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -9071,7 +9071,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -9103,7 +9103,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -9135,7 +9135,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -9167,7 +9167,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -9199,7 +9199,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -9222,16 +9222,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>15</v>
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -9286,16 +9286,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>12</v>
@@ -9318,16 +9318,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>21</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>169</v>
@@ -9350,16 +9350,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -9391,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -9468,7 +9468,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9500,7 +9500,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9523,16 +9523,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9587,16 +9587,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -9628,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9660,7 +9660,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9692,7 +9692,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9724,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -9756,7 +9756,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -9788,7 +9788,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9820,7 +9820,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -9948,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -9980,7 +9980,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -10012,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -10067,16 +10067,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -10108,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -10140,7 +10140,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -10172,7 +10172,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -10204,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -10236,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -10268,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -10300,7 +10300,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -10332,7 +10332,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -10364,7 +10364,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -10396,7 +10396,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -10428,7 +10428,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -10460,7 +10460,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -10492,7 +10492,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -10515,16 +10515,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -10556,7 +10556,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -10588,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10620,7 +10620,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10643,16 +10643,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -10684,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -10716,7 +10716,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -10748,7 +10748,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -10780,7 +10780,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -10812,7 +10812,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -10844,7 +10844,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10876,7 +10876,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -10908,7 +10908,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -10940,7 +10940,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -10972,7 +10972,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -10995,16 +10995,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>8</v>
@@ -11036,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -11059,16 +11059,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -11091,16 +11091,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -11123,16 +11123,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -11164,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -11241,7 +11241,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -11273,7 +11273,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -11360,16 +11360,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -11401,7 +11401,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -11465,7 +11465,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -11520,16 +11520,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -11561,7 +11561,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11593,7 +11593,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11689,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11721,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -11776,16 +11776,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11840,16 +11840,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -11875,13 +11875,13 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11913,7 +11913,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -11945,7 +11945,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11977,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -12009,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -12073,7 +12073,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -12105,7 +12105,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -12137,7 +12137,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -12169,7 +12169,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -12201,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -12233,7 +12233,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -12265,7 +12265,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -12288,16 +12288,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -12329,7 +12329,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -12361,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -12393,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -12416,16 +12416,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -12457,7 +12457,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -12521,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -12553,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>8</v>
@@ -12585,7 +12585,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -12617,7 +12617,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12649,7 +12649,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -12681,7 +12681,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -12713,7 +12713,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -12745,7 +12745,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -12768,16 +12768,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -12809,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -12832,16 +12832,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -12864,16 +12864,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -12905,7 +12905,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -12937,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -13046,7 +13046,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -13069,16 +13069,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -13133,16 +13133,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -13174,7 +13174,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -13206,7 +13206,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -13238,7 +13238,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -13270,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -13302,7 +13302,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -13334,7 +13334,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -13366,7 +13366,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -13430,7 +13430,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -13494,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -13526,7 +13526,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -13549,16 +13549,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -13613,16 +13613,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -13654,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13686,7 +13686,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -13718,7 +13718,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13782,7 +13782,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -13814,7 +13814,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -13846,7 +13846,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -13878,7 +13878,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -13910,7 +13910,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -13942,7 +13942,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -13974,7 +13974,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -14006,7 +14006,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -14038,7 +14038,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -14061,16 +14061,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -14102,7 +14102,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -14166,7 +14166,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -14189,16 +14189,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -14230,7 +14230,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -14262,7 +14262,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -14294,7 +14294,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -14326,7 +14326,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -14358,7 +14358,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -14390,7 +14390,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -14422,7 +14422,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -14454,7 +14454,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -14486,7 +14486,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -14518,7 +14518,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -14541,16 +14541,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>8</v>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -14605,16 +14605,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -14637,16 +14637,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -14669,16 +14669,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -14787,7 +14787,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -14819,7 +14819,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14851,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -14906,16 +14906,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -14947,7 +14947,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -14979,7 +14979,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -15011,7 +15011,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -15043,7 +15043,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -15075,7 +15075,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -15107,7 +15107,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -15139,7 +15139,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -15235,7 +15235,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -15267,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -15299,7 +15299,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -15331,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -15386,16 +15386,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -15459,7 +15459,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -15491,7 +15491,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -15523,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -15555,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -15619,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -15651,7 +15651,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -15683,7 +15683,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -15715,7 +15715,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -15811,7 +15811,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -15834,16 +15834,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -15875,7 +15875,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -15907,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15939,7 +15939,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -15962,16 +15962,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -16003,7 +16003,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -16035,7 +16035,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -16067,7 +16067,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -16099,7 +16099,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>8</v>
@@ -16131,7 +16131,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -16163,7 +16163,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -16195,7 +16195,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -16227,7 +16227,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -16259,7 +16259,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -16291,7 +16291,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -16314,16 +16314,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -16378,16 +16378,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -16410,16 +16410,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -16451,7 +16451,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -16483,7 +16483,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -16560,7 +16560,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -16592,7 +16592,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -16615,16 +16615,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -16656,7 +16656,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -16679,16 +16679,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>13</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -16720,7 +16720,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -16752,7 +16752,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -16784,7 +16784,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -16816,7 +16816,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -16848,7 +16848,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -16880,7 +16880,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16903,7 +16903,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -16912,7 +16912,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -16944,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -16976,7 +16976,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16999,16 +16999,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -17072,7 +17072,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -17095,16 +17095,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -17159,16 +17159,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -17232,7 +17232,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -17264,7 +17264,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -17296,7 +17296,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -17328,7 +17328,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -17360,7 +17360,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -17392,7 +17392,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -17424,7 +17424,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -17456,7 +17456,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -17488,7 +17488,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -17520,7 +17520,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -17552,7 +17552,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -17584,7 +17584,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -17607,16 +17607,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -17648,7 +17648,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -17680,7 +17680,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -17703,7 +17703,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -17712,7 +17712,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -17735,16 +17735,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -17776,7 +17776,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -17808,7 +17808,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -17840,7 +17840,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -17872,7 +17872,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -17904,7 +17904,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -17936,7 +17936,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -17968,7 +17968,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -18000,7 +18000,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -18023,16 +18023,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -18064,7 +18064,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -18087,16 +18087,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -18128,7 +18128,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -18151,16 +18151,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -18183,16 +18183,16 @@
         <v>61</v>
       </c>
       <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
         <v>13</v>
       </c>
-      <c r="C53">
-        <v>12</v>
-      </c>
       <c r="D53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -18215,16 +18215,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -18256,7 +18256,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -18324,7 +18324,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>19</v>
@@ -18333,7 +18333,7 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -18356,7 +18356,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -18365,7 +18365,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -18388,7 +18388,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -18397,7 +18397,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -18420,7 +18420,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -18429,7 +18429,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -18452,7 +18452,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -18461,7 +18461,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -18484,7 +18484,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -18493,7 +18493,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -18516,7 +18516,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -18525,7 +18525,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -18548,7 +18548,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -18557,7 +18557,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -18580,7 +18580,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -18589,7 +18589,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -18612,7 +18612,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -18621,7 +18621,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -18644,7 +18644,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -18653,7 +18653,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -18676,7 +18676,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -18685,7 +18685,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -18708,7 +18708,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -18717,7 +18717,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -18740,7 +18740,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -18749,7 +18749,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -18772,7 +18772,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -18781,7 +18781,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -18804,7 +18804,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -18813,7 +18813,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -18836,7 +18836,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -18845,7 +18845,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -18868,7 +18868,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -18877,7 +18877,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -18932,7 +18932,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -18941,7 +18941,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -18964,16 +18964,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -18996,7 +18996,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -19005,7 +19005,7 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -19037,7 +19037,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -19060,7 +19060,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -19069,7 +19069,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -19092,7 +19092,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -19101,7 +19101,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -19124,7 +19124,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -19133,7 +19133,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -19156,7 +19156,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -19165,7 +19165,7 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -19188,7 +19188,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -19197,7 +19197,7 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -19220,7 +19220,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>15</v>
@@ -19229,7 +19229,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -19252,7 +19252,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>16</v>
@@ -19261,7 +19261,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -19284,7 +19284,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>18</v>
@@ -19293,7 +19293,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -19316,7 +19316,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>24</v>
@@ -19325,7 +19325,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -19348,7 +19348,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -19357,7 +19357,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -19380,7 +19380,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -19389,7 +19389,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -19412,7 +19412,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -19421,7 +19421,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -19444,7 +19444,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -19453,7 +19453,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -19476,7 +19476,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -19485,7 +19485,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -19508,7 +19508,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -19517,7 +19517,7 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -19540,7 +19540,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -19549,7 +19549,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -19572,7 +19572,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>24</v>
@@ -19581,7 +19581,7 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -19604,7 +19604,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -19613,7 +19613,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -19636,7 +19636,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>41</v>
@@ -19645,7 +19645,7 @@
         <v>41</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -19668,7 +19668,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -19677,7 +19677,7 @@
         <v>11</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -19700,7 +19700,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -19709,7 +19709,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -19732,7 +19732,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -19741,7 +19741,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -19773,7 +19773,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -19796,7 +19796,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -19805,7 +19805,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -19828,7 +19828,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>15</v>
@@ -19837,7 +19837,7 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -19860,7 +19860,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -19869,7 +19869,7 @@
         <v>6</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>6</v>
@@ -19892,7 +19892,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -19901,7 +19901,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -19924,7 +19924,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -19933,7 +19933,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -19956,7 +19956,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C53">
         <v>16</v>
@@ -19965,7 +19965,7 @@
         <v>16</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -19988,7 +19988,7 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C54">
         <v>24</v>
@@ -19997,7 +19997,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -20020,7 +20020,7 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -20029,7 +20029,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -20097,7 +20097,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>23</v>
@@ -20106,7 +20106,7 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -20129,7 +20129,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -20138,7 +20138,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -20161,7 +20161,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -20170,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -20193,7 +20193,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -20202,7 +20202,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>47</v>
@@ -20225,7 +20225,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -20234,7 +20234,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -20257,7 +20257,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -20266,7 +20266,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -20289,7 +20289,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -20298,7 +20298,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -20321,7 +20321,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -20330,7 +20330,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -20353,7 +20353,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -20362,7 +20362,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -20385,7 +20385,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -20394,7 +20394,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -20417,7 +20417,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -20426,7 +20426,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -20449,7 +20449,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -20458,7 +20458,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -20481,7 +20481,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -20490,7 +20490,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>33</v>
@@ -20513,7 +20513,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -20522,7 +20522,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -20545,7 +20545,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -20554,7 +20554,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -20577,7 +20577,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -20586,7 +20586,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>40</v>
@@ -20609,7 +20609,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -20618,7 +20618,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -20641,16 +20641,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -20705,7 +20705,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>16</v>
@@ -20714,7 +20714,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>34</v>
@@ -20737,16 +20737,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>18</v>
@@ -20769,7 +20769,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -20778,7 +20778,7 @@
         <v>7</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>14</v>
@@ -20810,7 +20810,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>45</v>
@@ -20833,7 +20833,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -20842,7 +20842,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -20865,7 +20865,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -20874,7 +20874,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -20897,7 +20897,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -20906,7 +20906,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>16</v>
@@ -20929,7 +20929,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -20938,7 +20938,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -20961,7 +20961,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -20970,7 +20970,7 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>40</v>
@@ -20993,7 +20993,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -21002,7 +21002,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -21025,7 +21025,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -21034,7 +21034,7 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>39</v>
@@ -21057,7 +21057,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>18</v>
@@ -21066,7 +21066,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>39</v>
@@ -21089,7 +21089,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>24</v>
@@ -21098,7 +21098,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>55</v>
@@ -21121,7 +21121,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -21130,7 +21130,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>15</v>
@@ -21153,7 +21153,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -21162,7 +21162,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>25</v>
@@ -21185,7 +21185,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -21194,7 +21194,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -21217,7 +21217,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -21226,7 +21226,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -21249,7 +21249,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -21258,7 +21258,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -21281,7 +21281,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -21290,7 +21290,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>19</v>
@@ -21313,7 +21313,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -21322,7 +21322,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>20</v>
@@ -21345,7 +21345,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>24</v>
@@ -21354,7 +21354,7 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>47</v>
@@ -21377,7 +21377,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -21386,7 +21386,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>25</v>
@@ -21418,7 +21418,7 @@
         <v>24</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>56</v>
@@ -21441,7 +21441,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -21450,7 +21450,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>14</v>
@@ -21473,7 +21473,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -21482,7 +21482,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -21505,7 +21505,7 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -21514,7 +21514,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -21546,7 +21546,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -21569,7 +21569,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -21578,7 +21578,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -21601,7 +21601,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>15</v>
@@ -21610,7 +21610,7 @@
         <v>16</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>33</v>
@@ -21633,7 +21633,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -21642,7 +21642,7 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>17</v>
@@ -21665,7 +21665,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -21674,7 +21674,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>24</v>
@@ -21697,7 +21697,7 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -21706,7 +21706,7 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>18</v>
@@ -21729,7 +21729,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C53">
         <v>16</v>
@@ -21738,7 +21738,7 @@
         <v>16</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>54</v>
@@ -21761,7 +21761,7 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C54">
         <v>24</v>
@@ -21770,7 +21770,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>46</v>
@@ -21793,7 +21793,7 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -21802,7 +21802,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>17</v>
@@ -21879,7 +21879,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>32</v>
@@ -21911,7 +21911,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -21934,16 +21934,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -21975,7 +21975,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -21998,16 +21998,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>167</v>
@@ -22039,7 +22039,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -22071,7 +22071,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -22103,7 +22103,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -22135,7 +22135,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -22158,16 +22158,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>54</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>192</v>
@@ -22199,7 +22199,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22231,7 +22231,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -22263,7 +22263,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -22295,7 +22295,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -22327,7 +22327,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -22359,7 +22359,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -22391,7 +22391,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -22423,7 +22423,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -22478,16 +22478,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>26</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>176</v>
@@ -22510,16 +22510,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>44</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>93</v>
@@ -22551,7 +22551,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -22583,7 +22583,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -22615,7 +22615,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -22638,16 +22638,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -22679,7 +22679,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -22711,7 +22711,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -22734,16 +22734,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>20</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -22775,7 +22775,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -22807,7 +22807,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -22830,7 +22830,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -22839,7 +22839,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -22862,16 +22862,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -22903,7 +22903,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -22926,16 +22926,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>17</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>168</v>
@@ -22967,7 +22967,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -22999,7 +22999,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -23031,7 +23031,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23054,16 +23054,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>167</v>
@@ -23095,7 +23095,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>55</v>
@@ -23118,16 +23118,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>16</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -23159,7 +23159,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -23191,7 +23191,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -23223,7 +23223,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -23255,7 +23255,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -23287,7 +23287,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -23319,7 +23319,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -23342,7 +23342,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -23351,7 +23351,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -23383,7 +23383,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>7</v>
@@ -23406,16 +23406,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>18</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>167</v>
@@ -23438,7 +23438,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -23447,7 +23447,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -23470,16 +23470,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>164</v>
@@ -23502,16 +23502,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>21</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>174</v>
@@ -23534,16 +23534,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>9</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>11</v>
@@ -23575,7 +23575,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -23652,7 +23652,7 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>32</v>
@@ -23684,7 +23684,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -23707,16 +23707,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -23748,7 +23748,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -23771,16 +23771,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>17</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>167</v>
@@ -23812,7 +23812,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -23844,7 +23844,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -23876,7 +23876,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -23908,7 +23908,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -23931,16 +23931,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>192</v>
@@ -23972,7 +23972,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24004,7 +24004,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24036,7 +24036,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -24068,7 +24068,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -24100,7 +24100,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -24132,7 +24132,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -24164,7 +24164,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -24196,7 +24196,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -24251,16 +24251,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>176</v>
@@ -24283,16 +24283,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>44</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>93</v>
@@ -24324,7 +24324,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -24356,7 +24356,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -24388,7 +24388,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -24411,16 +24411,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -24452,7 +24452,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -24484,7 +24484,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -24507,16 +24507,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>20</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -24548,7 +24548,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -24580,7 +24580,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -24603,7 +24603,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -24612,7 +24612,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -24635,16 +24635,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -24676,7 +24676,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -24699,16 +24699,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>18</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>168</v>
@@ -24740,7 +24740,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -24772,7 +24772,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -24804,7 +24804,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -24827,16 +24827,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>167</v>
@@ -24868,7 +24868,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>55</v>
@@ -24891,16 +24891,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>16</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -24932,7 +24932,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -24964,7 +24964,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -24996,7 +24996,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -25028,7 +25028,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25060,7 +25060,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -25092,7 +25092,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -25115,7 +25115,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -25124,7 +25124,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -25156,7 +25156,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>7</v>
@@ -25179,16 +25179,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>18</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>167</v>
@@ -25211,7 +25211,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -25220,7 +25220,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -25243,16 +25243,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>164</v>
@@ -25275,16 +25275,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>174</v>
@@ -25307,16 +25307,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>9</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>11</v>
@@ -25348,7 +25348,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -25425,7 +25425,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -25457,7 +25457,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -25489,7 +25489,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -25521,7 +25521,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -25544,16 +25544,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -25585,7 +25585,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -25617,7 +25617,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -25649,7 +25649,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -25681,7 +25681,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -25713,7 +25713,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -25745,7 +25745,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -25777,7 +25777,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -25809,7 +25809,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -25841,7 +25841,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -25873,7 +25873,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -25905,7 +25905,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -25937,7 +25937,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -25969,7 +25969,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -26024,16 +26024,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -26097,7 +26097,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -26129,7 +26129,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -26161,7 +26161,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -26193,7 +26193,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -26225,7 +26225,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -26257,7 +26257,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -26289,7 +26289,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -26321,7 +26321,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -26353,7 +26353,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -26385,7 +26385,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -26417,7 +26417,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -26449,7 +26449,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -26472,16 +26472,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -26513,7 +26513,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -26545,7 +26545,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -26577,7 +26577,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -26600,16 +26600,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -26641,7 +26641,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -26673,7 +26673,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -26705,7 +26705,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -26737,7 +26737,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -26769,7 +26769,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -26801,7 +26801,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -26833,7 +26833,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -26865,7 +26865,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -26897,7 +26897,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -26929,7 +26929,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -26952,16 +26952,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -26993,7 +26993,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -27016,16 +27016,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -27048,16 +27048,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -27089,7 +27089,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -27121,7 +27121,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G55">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1042,16 +1042,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1237,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1339,7 +1339,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1467,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -1563,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -1627,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1746,7 +1746,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1851,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -1883,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1947,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -2066,16 +2066,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2258,16 +2258,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2376,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2664,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -2696,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3240,7 +3240,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3336,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3400,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3464,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3528,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3592,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3624,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -3656,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3720,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4031,16 +4031,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -4149,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4181,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4373,7 +4373,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -4437,7 +4437,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4469,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4917,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -5013,7 +5013,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -5109,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -5141,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -5173,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -5237,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5365,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -5429,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -5461,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -5621,7 +5621,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5804,16 +5804,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -5845,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5922,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5954,7 +5954,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -6210,7 +6210,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -6242,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -6274,7 +6274,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6594,7 +6594,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6690,7 +6690,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6786,7 +6786,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -6882,7 +6882,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -6946,7 +6946,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -7010,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -7074,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -7138,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -7170,7 +7170,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -7202,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -7234,7 +7234,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -7266,7 +7266,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -7394,7 +7394,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -7577,16 +7577,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -7695,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7727,7 +7727,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7919,7 +7919,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -7983,7 +7983,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -8015,7 +8015,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -8047,7 +8047,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -8111,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -8367,7 +8367,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8559,7 +8559,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -8655,7 +8655,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -8719,7 +8719,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -8783,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -8847,7 +8847,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8911,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -8943,7 +8943,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -8975,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -9007,7 +9007,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -9039,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -9167,7 +9167,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -9350,16 +9350,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -9391,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -9468,7 +9468,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9500,7 +9500,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9692,7 +9692,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9756,7 +9756,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -9788,7 +9788,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9820,7 +9820,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -10108,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -10140,7 +10140,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -10204,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -10236,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -10332,7 +10332,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -10428,7 +10428,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -10460,7 +10460,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -10492,7 +10492,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -10556,7 +10556,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -10620,7 +10620,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10684,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -10716,7 +10716,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -10748,7 +10748,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -10780,7 +10780,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -10812,7 +10812,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -10940,7 +10940,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -11036,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -11123,16 +11123,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -11164,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -11241,7 +11241,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -11273,7 +11273,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -11465,7 +11465,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -11520,16 +11520,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -11561,7 +11561,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11593,7 +11593,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11689,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11875,13 +11875,13 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11913,7 +11913,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -11977,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -12009,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -12105,7 +12105,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -12201,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -12233,7 +12233,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -12265,7 +12265,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -12329,7 +12329,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -12393,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -12457,7 +12457,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -12521,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -12553,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>8</v>
@@ -12585,7 +12585,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -12713,7 +12713,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -12809,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -12905,7 +12905,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -12937,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -13046,7 +13046,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -13238,7 +13238,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -13302,7 +13302,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -13334,7 +13334,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -13366,7 +13366,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -13430,7 +13430,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -13654,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13686,7 +13686,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13782,7 +13782,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -13878,7 +13878,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -13974,7 +13974,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -14006,7 +14006,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -14038,7 +14038,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -14102,7 +14102,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -14166,7 +14166,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -14230,7 +14230,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -14262,7 +14262,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -14294,7 +14294,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -14326,7 +14326,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -14358,7 +14358,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -14486,7 +14486,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -14669,16 +14669,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -14787,7 +14787,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -14819,7 +14819,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -15011,7 +15011,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -15075,7 +15075,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -15107,7 +15107,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -15139,7 +15139,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -15235,7 +15235,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -15459,7 +15459,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -15523,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -15555,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -15651,7 +15651,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -15811,7 +15811,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -15875,7 +15875,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -15939,7 +15939,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -16003,7 +16003,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -16035,7 +16035,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -16067,7 +16067,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -16099,7 +16099,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>8</v>
@@ -16131,7 +16131,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -16259,7 +16259,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -16451,7 +16451,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -16483,7 +16483,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -16560,7 +16560,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -16592,7 +16592,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -16656,7 +16656,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -16784,7 +16784,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -16848,7 +16848,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -16880,7 +16880,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16903,7 +16903,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -16912,7 +16912,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -16976,7 +16976,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16999,16 +16999,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -17232,7 +17232,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -17296,7 +17296,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -17328,7 +17328,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -17424,7 +17424,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -17520,7 +17520,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -17552,7 +17552,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -17584,7 +17584,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -17648,7 +17648,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -17703,7 +17703,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -17712,7 +17712,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -17776,7 +17776,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -17808,7 +17808,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -17840,7 +17840,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -17872,7 +17872,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -17904,7 +17904,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -18023,16 +18023,16 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -18128,7 +18128,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -18215,16 +18215,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -18256,7 +18256,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -18324,7 +18324,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>19</v>
@@ -18333,7 +18333,7 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -18365,7 +18365,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -18420,7 +18420,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -18429,7 +18429,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -18548,7 +18548,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -18557,7 +18557,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -18612,7 +18612,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -18621,7 +18621,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -18653,7 +18653,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -18685,7 +18685,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -18740,7 +18740,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -18749,7 +18749,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -18772,7 +18772,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -18781,7 +18781,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -18964,16 +18964,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -19005,7 +19005,7 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -19060,7 +19060,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -19069,7 +19069,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -19101,7 +19101,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -19188,7 +19188,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -19197,7 +19197,7 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -19284,7 +19284,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>18</v>
@@ -19293,7 +19293,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -19316,7 +19316,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>24</v>
@@ -19325,7 +19325,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -19357,7 +19357,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -19412,7 +19412,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -19421,7 +19421,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -19485,7 +19485,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -19540,7 +19540,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -19549,7 +19549,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -19572,7 +19572,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>24</v>
@@ -19581,7 +19581,7 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -19604,7 +19604,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -19613,7 +19613,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -19645,7 +19645,7 @@
         <v>41</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -19677,7 +19677,7 @@
         <v>11</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -19796,7 +19796,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -19805,7 +19805,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -19892,7 +19892,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -19901,7 +19901,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -19988,7 +19988,7 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>24</v>
@@ -19997,7 +19997,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -20020,7 +20020,7 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -20029,7 +20029,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -20097,7 +20097,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>23</v>
@@ -20106,7 +20106,7 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -20138,7 +20138,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -20193,7 +20193,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -20202,7 +20202,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>47</v>
@@ -20321,7 +20321,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -20330,7 +20330,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -20385,7 +20385,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -20394,7 +20394,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -20426,7 +20426,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -20458,7 +20458,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -20513,7 +20513,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -20522,7 +20522,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -20545,7 +20545,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -20554,7 +20554,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -20737,16 +20737,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>18</v>
@@ -20778,7 +20778,7 @@
         <v>7</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>14</v>
@@ -20833,7 +20833,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -20842,7 +20842,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -20874,7 +20874,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -20961,7 +20961,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -20970,7 +20970,7 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>40</v>
@@ -21057,7 +21057,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>18</v>
@@ -21066,7 +21066,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>39</v>
@@ -21089,7 +21089,7 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>24</v>
@@ -21098,7 +21098,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>55</v>
@@ -21130,7 +21130,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>15</v>
@@ -21185,7 +21185,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -21194,7 +21194,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -21258,7 +21258,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -21313,7 +21313,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -21322,7 +21322,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>20</v>
@@ -21345,7 +21345,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>24</v>
@@ -21354,7 +21354,7 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>47</v>
@@ -21377,7 +21377,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -21386,7 +21386,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>25</v>
@@ -21418,7 +21418,7 @@
         <v>24</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>56</v>
@@ -21450,7 +21450,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>14</v>
@@ -21569,7 +21569,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -21578,7 +21578,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -21665,7 +21665,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -21674,7 +21674,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>24</v>
@@ -21761,7 +21761,7 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>24</v>
@@ -21770,7 +21770,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>46</v>
@@ -21793,7 +21793,7 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -21802,7 +21802,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>17</v>
@@ -21870,16 +21870,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>32</v>
@@ -21911,7 +21911,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -21975,7 +21975,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -22103,7 +22103,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -22158,16 +22158,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>54</v>
       </c>
       <c r="D11">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>192</v>
@@ -22199,7 +22199,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22231,7 +22231,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -22295,7 +22295,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -22327,7 +22327,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -22510,16 +22510,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>44</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>93</v>
@@ -22551,7 +22551,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -22615,7 +22615,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -22638,16 +22638,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -22734,16 +22734,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>20</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -22830,7 +22830,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -22839,7 +22839,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -22862,16 +22862,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -22903,7 +22903,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -22967,7 +22967,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -23031,7 +23031,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23086,7 +23086,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -23095,7 +23095,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>55</v>
@@ -23118,16 +23118,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>16</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -23159,7 +23159,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -23191,7 +23191,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -23223,7 +23223,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -23342,7 +23342,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -23351,7 +23351,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -23438,7 +23438,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -23447,7 +23447,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -23540,10 +23540,10 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>11</v>
@@ -23575,7 +23575,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -23643,16 +23643,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>32</v>
@@ -23684,7 +23684,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -23748,7 +23748,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -23876,7 +23876,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -23931,16 +23931,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>192</v>
@@ -23972,7 +23972,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24004,7 +24004,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24068,7 +24068,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -24100,7 +24100,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -24283,16 +24283,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>44</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>93</v>
@@ -24324,7 +24324,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -24388,7 +24388,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -24411,16 +24411,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -24507,16 +24507,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>20</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -24603,7 +24603,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -24612,7 +24612,7 @@
         <v>4</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -24635,16 +24635,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -24676,7 +24676,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -24740,7 +24740,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -24804,7 +24804,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -24859,7 +24859,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -24868,7 +24868,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>55</v>
@@ -24891,16 +24891,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>16</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -24932,7 +24932,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -24964,7 +24964,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -24996,7 +24996,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -25115,7 +25115,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -25124,7 +25124,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -25211,7 +25211,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -25220,7 +25220,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -25313,10 +25313,10 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>11</v>
@@ -25348,7 +25348,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -25425,7 +25425,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -25457,7 +25457,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -25521,7 +25521,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -25649,7 +25649,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -25713,7 +25713,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -25745,7 +25745,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -25777,7 +25777,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -25841,7 +25841,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -25873,7 +25873,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -26097,7 +26097,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -26161,7 +26161,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -26193,7 +26193,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -26289,7 +26289,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -26385,7 +26385,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -26417,7 +26417,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -26449,7 +26449,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -26513,7 +26513,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -26577,7 +26577,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -26641,7 +26641,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -26673,7 +26673,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -26705,7 +26705,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -26737,7 +26737,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -26769,7 +26769,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -26897,7 +26897,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -26993,7 +26993,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -27089,7 +27089,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -27121,7 +27121,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G55">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
@@ -14970,13 +14970,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -15034,13 +15034,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -15386,13 +15386,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
         <v>17</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -15962,13 +15962,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
         <v>5</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -16314,13 +16314,13 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>50</v>
@@ -16378,13 +16378,13 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>50</v>

--- a/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
@@ -658,16 +658,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -722,16 +722,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -763,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1202,16 +1202,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>16</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1339,7 +1339,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1499,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -1659,7 +1659,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -1778,16 +1778,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1851,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -1883,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -1947,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1979,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -2011,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -2043,7 +2043,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -2107,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -2130,16 +2130,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2194,16 +2194,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -2226,16 +2226,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -2267,7 +2267,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2431,16 +2431,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2495,16 +2495,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2600,7 +2600,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2632,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2696,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2911,16 +2911,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2975,16 +2975,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -3080,7 +3080,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3208,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3272,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3304,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3432,7 +3432,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -3464,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3528,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3551,16 +3551,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -3592,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3624,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -3656,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3720,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3752,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3784,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -3816,7 +3816,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -3880,7 +3880,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -3903,16 +3903,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3967,16 +3967,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -3999,16 +3999,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>13</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -4040,7 +4040,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -4204,16 +4204,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4268,16 +4268,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4309,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4373,7 +4373,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -4405,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4469,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4684,16 +4684,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4748,16 +4748,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4917,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -5045,7 +5045,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -5077,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -5237,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5324,16 +5324,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -5365,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -5429,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -5525,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5557,7 +5557,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -5589,7 +5589,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -5621,7 +5621,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -5676,16 +5676,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5740,16 +5740,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -5772,16 +5772,16 @@
         <v>61</v>
       </c>
       <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
         <v>15</v>
       </c>
-      <c r="C53">
-        <v>14</v>
-      </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -5813,7 +5813,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -5845,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5977,16 +5977,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6041,16 +6041,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>136</v>
@@ -6082,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6114,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6146,7 +6146,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6242,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6457,16 +6457,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6521,16 +6521,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>31</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>153</v>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6626,7 +6626,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6690,7 +6690,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6818,7 +6818,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -6850,7 +6850,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6969,16 +6969,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D35">
         <v>31</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>119</v>
@@ -7010,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7074,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -7097,16 +7097,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -7138,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -7170,7 +7170,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -7202,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -7266,7 +7266,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -7298,7 +7298,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7330,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -7362,7 +7362,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -7394,7 +7394,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -7426,7 +7426,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -7449,16 +7449,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>15</v>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -7513,16 +7513,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D52">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>12</v>
@@ -7545,16 +7545,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D53">
         <v>31</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>169</v>
@@ -7586,7 +7586,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -7750,16 +7750,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7814,16 +7814,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>136</v>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7887,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7919,7 +7919,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -7951,7 +7951,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -8015,7 +8015,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -8079,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -8207,7 +8207,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8294,16 +8294,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>153</v>
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -8399,7 +8399,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -8591,7 +8591,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8742,16 +8742,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>17</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>119</v>
@@ -8783,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8870,16 +8870,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>16</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -8911,7 +8911,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -8943,7 +8943,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -8975,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -9039,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -9071,7 +9071,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -9103,7 +9103,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -9135,7 +9135,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -9167,7 +9167,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -9199,7 +9199,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -9222,16 +9222,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>15</v>
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -9286,16 +9286,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C52">
         <v>15</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>12</v>
@@ -9318,16 +9318,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C53">
         <v>21</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>169</v>
@@ -9359,7 +9359,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -9391,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -9523,16 +9523,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9587,16 +9587,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -9628,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9660,7 +9660,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9692,7 +9692,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9724,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -9788,7 +9788,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -9948,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -9980,7 +9980,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -10012,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -10076,7 +10076,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -10108,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -10172,7 +10172,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -10204,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -10236,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -10268,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -10300,7 +10300,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -10364,7 +10364,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -10396,7 +10396,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -10524,7 +10524,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -10556,7 +10556,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -10588,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10620,7 +10620,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10643,16 +10643,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -10684,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -10716,7 +10716,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -10748,7 +10748,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -10812,7 +10812,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -10844,7 +10844,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10876,7 +10876,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -10908,7 +10908,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -10940,7 +10940,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -10972,7 +10972,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -11004,7 +11004,7 @@
         <v>12</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>8</v>
@@ -11036,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -11059,16 +11059,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -11091,16 +11091,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -11132,7 +11132,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -11164,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -11369,7 +11369,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -11401,7 +11401,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -11465,7 +11465,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -11561,7 +11561,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -11689,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11721,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -11776,16 +11776,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11849,7 +11849,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11945,7 +11945,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11977,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -12009,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -12073,7 +12073,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -12137,7 +12137,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -12169,7 +12169,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -12297,7 +12297,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -12329,7 +12329,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -12361,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -12393,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -12425,7 +12425,7 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -12457,7 +12457,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -12521,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -12585,7 +12585,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -12617,7 +12617,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12649,7 +12649,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -12681,7 +12681,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -12713,7 +12713,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -12745,7 +12745,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -12777,7 +12777,7 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -12809,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -12841,7 +12841,7 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -12864,16 +12864,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -12905,7 +12905,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -12937,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -13069,16 +13069,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -13133,16 +13133,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -13174,7 +13174,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -13206,7 +13206,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -13238,7 +13238,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -13270,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -13334,7 +13334,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -13494,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -13526,7 +13526,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -13549,16 +13549,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -13622,7 +13622,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -13654,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13718,7 +13718,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13782,7 +13782,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -13814,7 +13814,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -13846,7 +13846,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -13910,7 +13910,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -13942,7 +13942,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -14070,7 +14070,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -14102,7 +14102,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -14166,7 +14166,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -14198,7 +14198,7 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -14230,7 +14230,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -14262,7 +14262,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -14294,7 +14294,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -14358,7 +14358,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -14390,7 +14390,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -14422,7 +14422,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -14454,7 +14454,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -14486,7 +14486,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -14518,7 +14518,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -14550,7 +14550,7 @@
         <v>12</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>8</v>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -14614,7 +14614,7 @@
         <v>7</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -14637,16 +14637,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -14678,7 +14678,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -14851,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14915,7 +14915,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -14947,7 +14947,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -15011,7 +15011,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -15107,7 +15107,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -15235,7 +15235,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -15267,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -15299,7 +15299,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -15331,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -15395,7 +15395,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -15523,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -15555,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -15619,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -15683,7 +15683,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -15715,7 +15715,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -15843,7 +15843,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -15875,7 +15875,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -15907,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15939,7 +15939,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -15971,7 +15971,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -16003,7 +16003,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -16035,7 +16035,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -16067,7 +16067,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -16131,7 +16131,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -16163,7 +16163,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -16195,7 +16195,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -16227,7 +16227,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -16259,7 +16259,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -16291,7 +16291,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -16323,7 +16323,7 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -16387,7 +16387,7 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -16410,16 +16410,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -16451,7 +16451,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -16483,7 +16483,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -16615,16 +16615,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -16679,16 +16679,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -16720,7 +16720,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -16752,7 +16752,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -16784,7 +16784,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -16816,7 +16816,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -16880,7 +16880,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16944,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -17008,7 +17008,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -17072,7 +17072,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -17095,16 +17095,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -17159,16 +17159,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -17264,7 +17264,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -17296,7 +17296,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -17328,7 +17328,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -17360,7 +17360,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -17392,7 +17392,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -17456,7 +17456,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -17488,7 +17488,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -17616,7 +17616,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -17648,7 +17648,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -17680,7 +17680,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -17712,7 +17712,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -17735,16 +17735,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -17776,7 +17776,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -17808,7 +17808,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -17840,7 +17840,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -17904,7 +17904,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -17936,7 +17936,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -17968,7 +17968,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -18000,7 +18000,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -18032,7 +18032,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -18064,7 +18064,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -18087,16 +18087,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -18128,7 +18128,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -18151,16 +18151,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -18183,16 +18183,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>13</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -18224,7 +18224,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -18256,7 +18256,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -18388,7 +18388,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -18397,7 +18397,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -18461,7 +18461,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -18493,7 +18493,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -18525,7 +18525,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -18548,7 +18548,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -18557,7 +18557,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -18589,7 +18589,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -18644,7 +18644,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -18653,7 +18653,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -18717,7 +18717,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -18772,7 +18772,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -18781,7 +18781,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -18813,7 +18813,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -18845,7 +18845,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -18868,7 +18868,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -18877,7 +18877,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -18941,7 +18941,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -18964,7 +18964,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -18973,7 +18973,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -19037,7 +19037,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -19060,7 +19060,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -19069,7 +19069,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -19092,7 +19092,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -19101,7 +19101,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -19124,7 +19124,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -19133,7 +19133,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -19165,7 +19165,7 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -19229,7 +19229,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -19261,7 +19261,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -19389,7 +19389,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -19412,7 +19412,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -19421,7 +19421,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -19444,7 +19444,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -19453,7 +19453,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -19476,7 +19476,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -19485,7 +19485,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -19517,7 +19517,7 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -19540,7 +19540,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -19549,7 +19549,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -19572,7 +19572,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>24</v>
@@ -19581,7 +19581,7 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -19604,7 +19604,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -19613,7 +19613,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -19668,7 +19668,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -19677,7 +19677,7 @@
         <v>11</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -19709,7 +19709,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -19741,7 +19741,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -19773,7 +19773,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -19796,7 +19796,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -19805,7 +19805,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -19837,7 +19837,7 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -19869,7 +19869,7 @@
         <v>6</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>6</v>
@@ -19892,7 +19892,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -19901,7 +19901,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -19933,7 +19933,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -19956,7 +19956,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>16</v>
@@ -19965,7 +19965,7 @@
         <v>16</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -19988,7 +19988,7 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54">
         <v>24</v>
@@ -19997,7 +19997,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -20020,7 +20020,7 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -20029,7 +20029,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -20170,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -20234,7 +20234,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -20266,7 +20266,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -20298,7 +20298,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -20321,7 +20321,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -20330,7 +20330,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -20362,7 +20362,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -20417,7 +20417,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -20426,7 +20426,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -20490,7 +20490,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>33</v>
@@ -20545,7 +20545,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -20554,7 +20554,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -20586,7 +20586,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>40</v>
@@ -20618,7 +20618,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -20641,16 +20641,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -20714,7 +20714,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>34</v>
@@ -20737,7 +20737,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -20746,7 +20746,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>18</v>
@@ -20810,7 +20810,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>45</v>
@@ -20833,7 +20833,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -20842,7 +20842,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -20865,7 +20865,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -20874,7 +20874,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -20897,7 +20897,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -20906,7 +20906,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>16</v>
@@ -20938,7 +20938,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -21002,7 +21002,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -21034,7 +21034,7 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>39</v>
@@ -21162,7 +21162,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>25</v>
@@ -21185,7 +21185,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -21194,7 +21194,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -21217,7 +21217,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -21226,7 +21226,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -21249,7 +21249,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -21258,7 +21258,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -21290,7 +21290,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>19</v>
@@ -21313,7 +21313,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -21322,7 +21322,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>20</v>
@@ -21345,7 +21345,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>24</v>
@@ -21354,7 +21354,7 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>47</v>
@@ -21377,7 +21377,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -21386,7 +21386,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>25</v>
@@ -21441,7 +21441,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -21450,7 +21450,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>14</v>
@@ -21482,7 +21482,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -21514,7 +21514,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -21546,7 +21546,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -21569,7 +21569,7 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -21578,7 +21578,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -21610,7 +21610,7 @@
         <v>16</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>33</v>
@@ -21642,7 +21642,7 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>17</v>
@@ -21665,7 +21665,7 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -21674,7 +21674,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>24</v>
@@ -21706,7 +21706,7 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>18</v>
@@ -21729,7 +21729,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>16</v>
@@ -21738,7 +21738,7 @@
         <v>16</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>54</v>
@@ -21761,7 +21761,7 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54">
         <v>24</v>
@@ -21770,7 +21770,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>46</v>
@@ -21793,7 +21793,7 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -21802,7 +21802,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>17</v>
@@ -21934,16 +21934,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -21998,16 +21998,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>167</v>
@@ -22039,7 +22039,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -22071,7 +22071,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -22103,7 +22103,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -22135,7 +22135,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -22199,7 +22199,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22263,7 +22263,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -22327,7 +22327,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -22359,7 +22359,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -22391,7 +22391,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -22423,7 +22423,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -22478,16 +22478,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>176</v>
@@ -22510,16 +22510,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>44</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>93</v>
@@ -22583,7 +22583,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -22615,7 +22615,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -22647,7 +22647,7 @@
         <v>7</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -22679,7 +22679,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -22711,7 +22711,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -22775,7 +22775,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -22807,7 +22807,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -22926,16 +22926,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>168</v>
@@ -22967,7 +22967,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -22999,7 +22999,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -23031,7 +23031,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23054,16 +23054,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>167</v>
@@ -23095,7 +23095,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>55</v>
@@ -23118,7 +23118,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>16</v>
@@ -23127,7 +23127,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -23159,7 +23159,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -23223,7 +23223,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -23255,7 +23255,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -23287,7 +23287,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -23319,7 +23319,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -23351,7 +23351,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -23374,7 +23374,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -23383,7 +23383,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>7</v>
@@ -23406,16 +23406,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>167</v>
@@ -23447,7 +23447,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -23470,16 +23470,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>164</v>
@@ -23502,16 +23502,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>174</v>
@@ -23543,7 +23543,7 @@
         <v>9</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>11</v>
@@ -23575,7 +23575,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -23707,16 +23707,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -23771,16 +23771,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>167</v>
@@ -23812,7 +23812,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -23844,7 +23844,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -23876,7 +23876,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -23908,7 +23908,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -23972,7 +23972,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24036,7 +24036,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -24100,7 +24100,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -24132,7 +24132,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -24164,7 +24164,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -24196,7 +24196,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -24251,16 +24251,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>176</v>
@@ -24283,16 +24283,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>44</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>93</v>
@@ -24356,7 +24356,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -24388,7 +24388,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -24420,7 +24420,7 @@
         <v>7</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -24452,7 +24452,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -24484,7 +24484,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -24548,7 +24548,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -24580,7 +24580,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -24699,16 +24699,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>168</v>
@@ -24740,7 +24740,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -24772,7 +24772,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -24804,7 +24804,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -24827,16 +24827,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>167</v>
@@ -24868,7 +24868,7 @@
         <v>4</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>55</v>
@@ -24891,7 +24891,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>16</v>
@@ -24900,7 +24900,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -24932,7 +24932,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -24996,7 +24996,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -25028,7 +25028,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25060,7 +25060,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -25092,7 +25092,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -25124,7 +25124,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -25147,7 +25147,7 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -25156,7 +25156,7 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>7</v>
@@ -25179,16 +25179,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>167</v>
@@ -25220,7 +25220,7 @@
         <v>3</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -25243,16 +25243,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>164</v>
@@ -25275,16 +25275,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>174</v>
@@ -25316,7 +25316,7 @@
         <v>9</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>11</v>
@@ -25348,7 +25348,7 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -25489,7 +25489,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -25544,16 +25544,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -25585,7 +25585,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -25617,7 +25617,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -25649,7 +25649,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -25681,7 +25681,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -25745,7 +25745,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -25809,7 +25809,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -25873,7 +25873,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -25905,7 +25905,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -25937,7 +25937,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -25969,7 +25969,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -26033,7 +26033,7 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -26129,7 +26129,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -26161,7 +26161,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -26193,7 +26193,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -26225,7 +26225,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -26257,7 +26257,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -26321,7 +26321,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -26353,7 +26353,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -26481,7 +26481,7 @@
         <v>11</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -26513,7 +26513,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -26545,7 +26545,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -26577,7 +26577,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -26609,7 +26609,7 @@
         <v>7</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -26641,7 +26641,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -26673,7 +26673,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -26705,7 +26705,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -26769,7 +26769,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -26801,7 +26801,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -26833,7 +26833,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -26865,7 +26865,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -26897,7 +26897,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -26929,7 +26929,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -26961,7 +26961,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -26993,7 +26993,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -27025,7 +27025,7 @@
         <v>6</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -27048,16 +27048,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -27089,7 +27089,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -27121,7 +27121,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G55">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -763,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -955,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1211,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1307,7 +1307,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1339,7 +1339,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1467,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -1499,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -1531,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -1563,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -1627,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -1659,7 +1659,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1755,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -1787,7 +1787,7 @@
         <v>13</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1851,7 +1851,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -1883,7 +1883,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1947,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -1979,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -2011,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -2043,7 +2043,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -2107,7 +2107,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -2139,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2203,7 +2203,7 @@
         <v>13</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -2235,7 +2235,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -2267,7 +2267,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -2376,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2408,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -2536,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2600,7 +2600,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -2632,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2664,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -2696,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2984,7 +2984,7 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -3080,7 +3080,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3144,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -3208,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3240,7 +3240,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -3272,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3304,7 +3304,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3336,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3400,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3432,7 +3432,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -3464,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3528,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3560,7 +3560,7 @@
         <v>11</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -3592,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3624,7 +3624,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -3656,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3720,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3752,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3784,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -3816,7 +3816,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -3848,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -3880,7 +3880,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -3912,7 +3912,7 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         <v>13</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -4008,7 +4008,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -4040,7 +4040,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -4149,7 +4149,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4181,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4213,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -4309,7 +4309,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -4341,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4373,7 +4373,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -4405,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -4437,7 +4437,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -4469,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4757,7 +4757,7 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -4789,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -4853,7 +4853,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4917,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -5013,7 +5013,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -5045,7 +5045,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -5077,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -5109,7 +5109,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -5141,7 +5141,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -5173,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -5205,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -5237,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -5333,7 +5333,7 @@
         <v>13</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -5365,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -5429,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -5461,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -5525,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -5557,7 +5557,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -5589,7 +5589,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -5621,7 +5621,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -5685,7 +5685,7 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -5717,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5749,7 +5749,7 @@
         <v>13</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>8</v>
@@ -5781,7 +5781,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -5813,7 +5813,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -5845,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5922,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5954,7 +5954,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6041,16 +6041,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>136</v>
@@ -6082,7 +6082,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -6114,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6146,7 +6146,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -6210,7 +6210,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -6242,7 +6242,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -6274,7 +6274,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -6338,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6370,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -6434,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6466,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6521,16 +6521,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>153</v>
@@ -6562,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -6594,7 +6594,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -6626,7 +6626,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6690,7 +6690,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6754,7 +6754,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6786,7 +6786,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -6818,7 +6818,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -6850,7 +6850,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6882,7 +6882,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -6946,7 +6946,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -6969,16 +6969,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>119</v>
@@ -7010,7 +7010,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7074,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -7097,16 +7097,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -7138,7 +7138,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -7170,7 +7170,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -7202,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -7234,7 +7234,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -7266,7 +7266,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -7298,7 +7298,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -7330,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -7362,7 +7362,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -7394,7 +7394,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -7426,7 +7426,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -7449,16 +7449,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>15</v>
@@ -7490,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -7513,16 +7513,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>12</v>
@@ -7545,16 +7545,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D53">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>169</v>
@@ -7586,7 +7586,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -7695,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -7727,7 +7727,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7759,7 +7759,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7814,16 +7814,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>136</v>
@@ -7855,7 +7855,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -7887,7 +7887,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -7919,7 +7919,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -7951,7 +7951,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>22</v>
@@ -8015,7 +8015,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -8047,7 +8047,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -8079,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -8111,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -8207,7 +8207,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8294,16 +8294,16 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
         <v>43</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>43</v>
-      </c>
-      <c r="E21">
-        <v>62</v>
       </c>
       <c r="G21">
         <v>153</v>
@@ -8329,13 +8329,13 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -8367,7 +8367,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -8399,7 +8399,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -8527,7 +8527,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -8559,7 +8559,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -8591,7 +8591,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -8623,7 +8623,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8655,7 +8655,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -8719,7 +8719,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -8742,16 +8742,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>119</v>
@@ -8783,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -8870,16 +8870,16 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
         <v>39</v>
-      </c>
-      <c r="C39">
-        <v>16</v>
-      </c>
-      <c r="D39">
-        <v>39</v>
-      </c>
-      <c r="E39">
-        <v>62</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -8905,13 +8905,13 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -8943,7 +8943,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -8975,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -9007,7 +9007,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -9039,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -9071,7 +9071,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -9103,7 +9103,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -9135,7 +9135,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -9167,7 +9167,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -9199,7 +9199,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -9222,16 +9222,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>15</v>
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -9286,16 +9286,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>12</v>
@@ -9318,16 +9318,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>169</v>
@@ -9359,7 +9359,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -9391,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -9468,7 +9468,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -9500,7 +9500,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9532,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -9596,7 +9596,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -9628,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -9660,7 +9660,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9692,7 +9692,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -9724,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -9756,7 +9756,7 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -9788,7 +9788,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -9820,7 +9820,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -9948,7 +9948,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -9980,7 +9980,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -10012,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -10076,7 +10076,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -10108,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -10140,7 +10140,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -10172,7 +10172,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -10204,7 +10204,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -10236,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -10268,7 +10268,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -10300,7 +10300,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -10332,7 +10332,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -10364,7 +10364,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -10396,7 +10396,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -10428,7 +10428,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -10460,7 +10460,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -10492,7 +10492,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -10524,7 +10524,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -10556,7 +10556,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -10588,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -10620,7 +10620,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -10652,7 +10652,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -10684,7 +10684,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -10716,7 +10716,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -10748,7 +10748,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -10780,7 +10780,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -10812,7 +10812,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -10844,7 +10844,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -10876,7 +10876,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -10908,7 +10908,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -10940,7 +10940,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -10972,7 +10972,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -11004,7 +11004,7 @@
         <v>12</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>8</v>
@@ -11036,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -11068,7 +11068,7 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -11100,7 +11100,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -11132,7 +11132,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -11164,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -11241,7 +11241,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -11273,7 +11273,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -11337,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -11369,7 +11369,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -11401,7 +11401,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -11465,7 +11465,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -11529,7 +11529,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -11561,7 +11561,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -11593,7 +11593,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -11625,7 +11625,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11689,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -11721,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -11785,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11849,7 +11849,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -11881,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -11913,7 +11913,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -11945,7 +11945,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -11977,7 +11977,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -12009,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -12073,7 +12073,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -12105,7 +12105,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -12137,7 +12137,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -12169,7 +12169,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -12201,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -12233,7 +12233,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -12265,7 +12265,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -12297,7 +12297,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -12329,7 +12329,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -12361,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -12393,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -12425,7 +12425,7 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -12457,7 +12457,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -12489,7 +12489,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -12521,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -12553,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>8</v>
@@ -12585,7 +12585,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -12617,7 +12617,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -12649,7 +12649,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -12681,7 +12681,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -12713,7 +12713,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -12745,7 +12745,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -12777,7 +12777,7 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -12809,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -12841,7 +12841,7 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -12873,7 +12873,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -12905,7 +12905,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -12937,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -13046,7 +13046,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -13142,7 +13142,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -13174,7 +13174,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -13206,7 +13206,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -13238,7 +13238,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -13270,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -13302,7 +13302,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -13334,7 +13334,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -13366,7 +13366,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -13430,7 +13430,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -13494,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -13526,7 +13526,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -13558,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -13622,7 +13622,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -13654,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -13686,7 +13686,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -13718,7 +13718,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13782,7 +13782,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -13814,7 +13814,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -13846,7 +13846,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -13878,7 +13878,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -13910,7 +13910,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -13942,7 +13942,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -13974,7 +13974,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -14006,7 +14006,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -14038,7 +14038,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -14070,7 +14070,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -14102,7 +14102,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -14134,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -14166,7 +14166,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -14198,7 +14198,7 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>8</v>
@@ -14230,7 +14230,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -14262,7 +14262,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -14294,7 +14294,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -14326,7 +14326,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -14358,7 +14358,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -14390,7 +14390,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -14422,7 +14422,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -14454,7 +14454,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -14486,7 +14486,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -14518,7 +14518,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -14550,7 +14550,7 @@
         <v>12</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>8</v>
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -14614,7 +14614,7 @@
         <v>7</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -14646,7 +14646,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -14678,7 +14678,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -14710,7 +14710,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -14787,7 +14787,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -14819,7 +14819,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -14851,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -14915,7 +14915,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -14947,7 +14947,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -15011,7 +15011,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -15075,7 +15075,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -15107,7 +15107,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -15139,7 +15139,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -15203,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -15235,7 +15235,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -15267,7 +15267,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -15299,7 +15299,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -15331,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -15395,7 +15395,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -15459,7 +15459,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -15491,7 +15491,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -15523,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -15555,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -15619,7 +15619,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -15651,7 +15651,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -15683,7 +15683,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -15715,7 +15715,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -15811,7 +15811,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -15843,7 +15843,7 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -15875,7 +15875,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -15907,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -15939,7 +15939,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -15971,7 +15971,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -16003,7 +16003,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -16035,7 +16035,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -16067,7 +16067,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -16099,7 +16099,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>8</v>
@@ -16131,7 +16131,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -16163,7 +16163,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -16195,7 +16195,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -16227,7 +16227,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -16259,7 +16259,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -16291,7 +16291,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -16323,7 +16323,7 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -16355,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -16387,7 +16387,7 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -16419,7 +16419,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -16451,7 +16451,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -16483,7 +16483,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -16560,7 +16560,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -16592,7 +16592,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -16624,7 +16624,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -16656,7 +16656,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -16688,7 +16688,7 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -16720,7 +16720,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -16752,7 +16752,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -16784,7 +16784,7 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -16816,7 +16816,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>16</v>
@@ -16848,7 +16848,7 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -16880,7 +16880,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -16912,7 +16912,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -16944,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -16976,7 +16976,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -17008,7 +17008,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -17072,7 +17072,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -17104,7 +17104,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -17168,7 +17168,7 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -17232,7 +17232,7 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -17264,7 +17264,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -17296,7 +17296,7 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -17328,7 +17328,7 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -17360,7 +17360,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -17392,7 +17392,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -17424,7 +17424,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -17456,7 +17456,7 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -17488,7 +17488,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -17520,7 +17520,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -17552,7 +17552,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -17584,7 +17584,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>7</v>
@@ -17616,7 +17616,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -17648,7 +17648,7 @@
         <v>3</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -17680,7 +17680,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -17712,7 +17712,7 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>7</v>
@@ -17744,7 +17744,7 @@
         <v>13</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -17776,7 +17776,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -17808,7 +17808,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -17840,7 +17840,7 @@
         <v>3</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -17872,7 +17872,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -17904,7 +17904,7 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -17936,7 +17936,7 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>6</v>
@@ -17968,7 +17968,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -18000,7 +18000,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -18032,7 +18032,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -18064,7 +18064,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -18096,7 +18096,7 @@
         <v>16</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -18128,7 +18128,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -18160,7 +18160,7 @@
         <v>13</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>10</v>
@@ -18192,7 +18192,7 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -18224,7 +18224,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -18256,7 +18256,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -18333,7 +18333,7 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -18365,7 +18365,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -18397,7 +18397,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -18429,7 +18429,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -18461,7 +18461,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -18493,7 +18493,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -18525,7 +18525,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -18557,7 +18557,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -18589,7 +18589,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -18621,7 +18621,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -18653,7 +18653,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -18685,7 +18685,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -18717,7 +18717,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -18749,7 +18749,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -18781,7 +18781,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -18813,7 +18813,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -18845,7 +18845,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -18877,7 +18877,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -18941,7 +18941,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -18973,7 +18973,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -19005,7 +19005,7 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -19037,7 +19037,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -19101,7 +19101,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -19133,7 +19133,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -19165,7 +19165,7 @@
         <v>8</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -19197,7 +19197,7 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -19229,7 +19229,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -19261,7 +19261,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -19293,7 +19293,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -19325,7 +19325,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -19357,7 +19357,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -19389,7 +19389,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>14</v>
@@ -19421,7 +19421,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -19453,7 +19453,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -19517,7 +19517,7 @@
         <v>6</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>5</v>
@@ -19549,7 +19549,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -19581,7 +19581,7 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -19613,7 +19613,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -19645,7 +19645,7 @@
         <v>41</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -19677,7 +19677,7 @@
         <v>11</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -19709,7 +19709,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -19741,7 +19741,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -19773,7 +19773,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -19805,7 +19805,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -19837,7 +19837,7 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -19869,7 +19869,7 @@
         <v>6</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>6</v>
@@ -19901,7 +19901,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -19933,7 +19933,7 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -19965,7 +19965,7 @@
         <v>16</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -19997,7 +19997,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -20029,7 +20029,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -20106,7 +20106,7 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -20138,7 +20138,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -20170,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -20202,7 +20202,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>47</v>
@@ -20234,7 +20234,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -20266,7 +20266,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>24</v>
@@ -20298,7 +20298,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -20330,7 +20330,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -20362,7 +20362,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -20394,7 +20394,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -20426,7 +20426,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>14</v>
@@ -20458,7 +20458,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -20490,7 +20490,7 @@
         <v>16</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>33</v>
@@ -20522,7 +20522,7 @@
         <v>19</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -20554,7 +20554,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -20586,7 +20586,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>40</v>
@@ -20618,7 +20618,7 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -20650,7 +20650,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -20714,7 +20714,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>34</v>
@@ -20746,7 +20746,7 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>18</v>
@@ -20778,7 +20778,7 @@
         <v>7</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>14</v>
@@ -20810,7 +20810,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>45</v>
@@ -20842,7 +20842,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -20874,7 +20874,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -20906,7 +20906,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>16</v>
@@ -20938,7 +20938,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -20970,7 +20970,7 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>40</v>
@@ -21002,7 +21002,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>14</v>
@@ -21034,7 +21034,7 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>39</v>
@@ -21066,7 +21066,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>39</v>
@@ -21098,7 +21098,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>55</v>
@@ -21130,7 +21130,7 @@
         <v>8</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>15</v>
@@ -21162,7 +21162,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>25</v>
@@ -21194,7 +21194,7 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -21226,7 +21226,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>16</v>
@@ -21258,7 +21258,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>15</v>
@@ -21290,7 +21290,7 @@
         <v>5</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>19</v>
@@ -21322,7 +21322,7 @@
         <v>3</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>20</v>
@@ -21354,7 +21354,7 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>47</v>
@@ -21386,7 +21386,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>25</v>
@@ -21418,7 +21418,7 @@
         <v>24</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>56</v>
@@ -21450,7 +21450,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>14</v>
@@ -21482,7 +21482,7 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>14</v>
@@ -21514,7 +21514,7 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -21546,7 +21546,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -21578,7 +21578,7 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>14</v>
@@ -21610,7 +21610,7 @@
         <v>16</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>33</v>
@@ -21642,7 +21642,7 @@
         <v>4</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>17</v>
@@ -21674,7 +21674,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>24</v>
@@ -21706,7 +21706,7 @@
         <v>4</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>18</v>
@@ -21738,7 +21738,7 @@
         <v>16</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>54</v>
@@ -21770,7 +21770,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>46</v>
@@ -21802,7 +21802,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>17</v>
@@ -21870,16 +21870,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>32</v>
@@ -21911,7 +21911,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -21934,16 +21934,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -21975,7 +21975,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -21998,16 +21998,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>167</v>
@@ -22039,7 +22039,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -22071,7 +22071,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -22103,7 +22103,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -22135,7 +22135,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -22158,16 +22158,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>192</v>
@@ -22199,7 +22199,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -22231,7 +22231,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -22263,7 +22263,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -22295,7 +22295,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -22327,7 +22327,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -22359,7 +22359,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -22391,7 +22391,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -22414,16 +22414,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -22478,16 +22478,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>176</v>
@@ -22510,16 +22510,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>93</v>
@@ -22551,7 +22551,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -22583,7 +22583,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -22615,7 +22615,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -22638,16 +22638,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -22679,7 +22679,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -22711,7 +22711,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -22734,16 +22734,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -22775,7 +22775,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -22807,7 +22807,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -22830,16 +22830,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -22862,16 +22862,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -22903,7 +22903,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -22926,16 +22926,16 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
         <v>41</v>
-      </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-      <c r="D35">
-        <v>41</v>
-      </c>
-      <c r="E35">
-        <v>62</v>
       </c>
       <c r="G35">
         <v>168</v>
@@ -22967,7 +22967,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -22999,7 +22999,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -23031,7 +23031,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -23054,16 +23054,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
         <v>17</v>
       </c>
-      <c r="D39">
-        <v>40</v>
-      </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>167</v>
@@ -23086,16 +23086,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>55</v>
@@ -23118,16 +23118,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -23159,7 +23159,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -23191,7 +23191,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -23223,7 +23223,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -23255,7 +23255,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -23287,7 +23287,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -23319,7 +23319,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -23351,7 +23351,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -23374,16 +23374,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>7</v>
@@ -23406,16 +23406,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>167</v>
@@ -23438,16 +23438,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -23470,16 +23470,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>164</v>
@@ -23502,16 +23502,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>174</v>
@@ -23534,16 +23534,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>11</v>
@@ -23566,16 +23566,16 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -23643,16 +23643,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>32</v>
@@ -23684,7 +23684,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -23707,16 +23707,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -23748,7 +23748,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -23771,16 +23771,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>167</v>
@@ -23812,7 +23812,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -23844,7 +23844,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -23876,7 +23876,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -23908,7 +23908,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -23931,16 +23931,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>192</v>
@@ -23972,7 +23972,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -24004,7 +24004,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -24036,7 +24036,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -24068,7 +24068,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -24100,7 +24100,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -24132,7 +24132,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -24164,7 +24164,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -24187,16 +24187,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>7</v>
@@ -24251,16 +24251,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>176</v>
@@ -24283,16 +24283,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>93</v>
@@ -24324,7 +24324,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -24356,7 +24356,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>117</v>
@@ -24388,7 +24388,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -24411,16 +24411,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>51</v>
@@ -24452,7 +24452,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -24484,7 +24484,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -24507,16 +24507,16 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>34</v>
@@ -24548,7 +24548,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -24580,7 +24580,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -24603,16 +24603,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>6</v>
@@ -24635,16 +24635,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -24676,7 +24676,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -24699,16 +24699,16 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
         <v>41</v>
-      </c>
-      <c r="C35">
-        <v>22</v>
-      </c>
-      <c r="D35">
-        <v>41</v>
-      </c>
-      <c r="E35">
-        <v>62</v>
       </c>
       <c r="G35">
         <v>168</v>
@@ -24740,7 +24740,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -24772,7 +24772,7 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -24804,7 +24804,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -24827,16 +24827,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>167</v>
@@ -24859,16 +24859,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>55</v>
@@ -24891,16 +24891,16 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -24932,7 +24932,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -24964,7 +24964,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -24996,7 +24996,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -25028,7 +25028,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -25060,7 +25060,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -25092,7 +25092,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -25124,7 +25124,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -25147,16 +25147,16 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="D49">
-        <v>6</v>
-      </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>7</v>
@@ -25179,16 +25179,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>167</v>
@@ -25211,16 +25211,16 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>6</v>
@@ -25243,16 +25243,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>164</v>
@@ -25275,16 +25275,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>174</v>
@@ -25307,16 +25307,16 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>11</v>
@@ -25339,16 +25339,16 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>5</v>
@@ -25425,7 +25425,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -25457,7 +25457,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -25489,7 +25489,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -25521,7 +25521,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -25544,16 +25544,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -25585,7 +25585,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -25617,7 +25617,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -25649,7 +25649,7 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -25681,7 +25681,7 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -25713,7 +25713,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -25745,7 +25745,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -25777,7 +25777,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -25809,7 +25809,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -25841,7 +25841,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -25873,7 +25873,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -25905,7 +25905,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -25937,7 +25937,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -25969,7 +25969,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -26024,16 +26024,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -26065,7 +26065,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -26097,7 +26097,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -26129,7 +26129,7 @@
         <v>-1</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -26161,7 +26161,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -26193,7 +26193,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -26225,7 +26225,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -26257,7 +26257,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -26289,7 +26289,7 @@
         <v>6</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>6</v>
@@ -26321,7 +26321,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -26353,7 +26353,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -26385,7 +26385,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -26417,7 +26417,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -26449,7 +26449,7 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -26472,16 +26472,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>7</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -26513,7 +26513,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -26545,7 +26545,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -26577,7 +26577,7 @@
         <v>4</v>
       </c>
       <c r="E38">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -26600,16 +26600,16 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -26641,7 +26641,7 @@
         <v>2</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -26673,7 +26673,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>7</v>
@@ -26705,7 +26705,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -26737,7 +26737,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -26769,7 +26769,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -26801,7 +26801,7 @@
         <v>3</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -26833,7 +26833,7 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G46">
         <v>4</v>
@@ -26865,7 +26865,7 @@
         <v>-1</v>
       </c>
       <c r="E47">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>215</v>
@@ -26897,7 +26897,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -26929,7 +26929,7 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -26952,16 +26952,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -26993,7 +26993,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -27016,16 +27016,16 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -27048,16 +27048,16 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>18</v>
@@ -27089,7 +27089,7 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -27121,7 +27121,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>2</v>

--- a/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/ExamDB/1wise/0.8_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="64">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -6041,13 +6043,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>35</v>
@@ -6201,13 +6203,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>59</v>
@@ -6521,13 +6523,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>43</v>
@@ -6969,13 +6971,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>41</v>
@@ -7097,13 +7099,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>39</v>
@@ -7449,13 +7451,13 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>43</v>
@@ -7513,13 +7515,13 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>40</v>
@@ -7545,13 +7547,13 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>35</v>
@@ -12960,6 +12962,3552 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>215</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>94</v>
+      </c>
+      <c r="L2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>215</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>94</v>
+      </c>
+      <c r="L3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>215</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>131</v>
+      </c>
+      <c r="L4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>215</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>128</v>
+      </c>
+      <c r="L5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>215</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>178</v>
+      </c>
+      <c r="L6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>215</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>178</v>
+      </c>
+      <c r="L7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>215</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>178</v>
+      </c>
+      <c r="L8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>215</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>128</v>
+      </c>
+      <c r="L9">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>215</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>178</v>
+      </c>
+      <c r="L10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>215</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>94</v>
+      </c>
+      <c r="L11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>215</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>128</v>
+      </c>
+      <c r="L12">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>215</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>128</v>
+      </c>
+      <c r="L13">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>33</v>
+      </c>
+      <c r="H14">
+        <v>215</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>178</v>
+      </c>
+      <c r="L14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>215</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>128</v>
+      </c>
+      <c r="L15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>215</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>128</v>
+      </c>
+      <c r="L16">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>215</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>178</v>
+      </c>
+      <c r="L17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>41</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>215</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>178</v>
+      </c>
+      <c r="L18">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>215</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>110</v>
+      </c>
+      <c r="L19">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>215</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>215</v>
+      </c>
+      <c r="L20">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>215</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>178</v>
+      </c>
+      <c r="L21">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>215</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>91</v>
+      </c>
+      <c r="L22">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>215</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>128</v>
+      </c>
+      <c r="L23">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>45</v>
+      </c>
+      <c r="H24">
+        <v>215</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>178</v>
+      </c>
+      <c r="L24">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>215</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>128</v>
+      </c>
+      <c r="L25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>37</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>215</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>91</v>
+      </c>
+      <c r="L26">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>215</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>110</v>
+      </c>
+      <c r="L27">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>215</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>178</v>
+      </c>
+      <c r="L28">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>215</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>128</v>
+      </c>
+      <c r="L29">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>215</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>178</v>
+      </c>
+      <c r="L30">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>39</v>
+      </c>
+      <c r="H31">
+        <v>215</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>178</v>
+      </c>
+      <c r="L31">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>39</v>
+      </c>
+      <c r="H32">
+        <v>215</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>128</v>
+      </c>
+      <c r="L32">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>55</v>
+      </c>
+      <c r="H33">
+        <v>215</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>128</v>
+      </c>
+      <c r="L33">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>43</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>215</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>128</v>
+      </c>
+      <c r="L34">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>41</v>
+      </c>
+      <c r="G35">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>215</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>178</v>
+      </c>
+      <c r="L35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>215</v>
+      </c>
+      <c r="J36">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>128</v>
+      </c>
+      <c r="L36">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>215</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>131</v>
+      </c>
+      <c r="L37">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>42</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>215</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>128</v>
+      </c>
+      <c r="L38">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>215</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>178</v>
+      </c>
+      <c r="L39">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <v>215</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>110</v>
+      </c>
+      <c r="L40">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <v>47</v>
+      </c>
+      <c r="H41">
+        <v>215</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>128</v>
+      </c>
+      <c r="L41">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
+      <c r="H42">
+        <v>215</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>128</v>
+      </c>
+      <c r="L42">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>62</v>
+      </c>
+      <c r="G43">
+        <v>56</v>
+      </c>
+      <c r="H43">
+        <v>215</v>
+      </c>
+      <c r="J43">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>215</v>
+      </c>
+      <c r="L43">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>215</v>
+      </c>
+      <c r="J44">
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <v>128</v>
+      </c>
+      <c r="L44">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>31</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>215</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>178</v>
+      </c>
+      <c r="L45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>37</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>215</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46">
+        <v>178</v>
+      </c>
+      <c r="L46">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-1</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>215</v>
+      </c>
+      <c r="H47">
+        <v>215</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <v>215</v>
+      </c>
+      <c r="L47">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>215</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <v>128</v>
+      </c>
+      <c r="L48">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="G49">
+        <v>33</v>
+      </c>
+      <c r="H49">
+        <v>215</v>
+      </c>
+      <c r="J49">
+        <v>9</v>
+      </c>
+      <c r="K49">
+        <v>178</v>
+      </c>
+      <c r="L49">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>43</v>
+      </c>
+      <c r="G50">
+        <v>17</v>
+      </c>
+      <c r="H50">
+        <v>215</v>
+      </c>
+      <c r="J50">
+        <v>9</v>
+      </c>
+      <c r="K50">
+        <v>178</v>
+      </c>
+      <c r="L50">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>24</v>
+      </c>
+      <c r="H51">
+        <v>215</v>
+      </c>
+      <c r="J51">
+        <v>7</v>
+      </c>
+      <c r="K51">
+        <v>128</v>
+      </c>
+      <c r="L51">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <v>18</v>
+      </c>
+      <c r="H52">
+        <v>215</v>
+      </c>
+      <c r="J52">
+        <v>9</v>
+      </c>
+      <c r="K52">
+        <v>178</v>
+      </c>
+      <c r="L52">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>35</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>35</v>
+      </c>
+      <c r="G53">
+        <v>54</v>
+      </c>
+      <c r="H53">
+        <v>215</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>178</v>
+      </c>
+      <c r="L53">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>34</v>
+      </c>
+      <c r="G54">
+        <v>46</v>
+      </c>
+      <c r="H54">
+        <v>215</v>
+      </c>
+      <c r="J54">
+        <v>7</v>
+      </c>
+      <c r="K54">
+        <v>128</v>
+      </c>
+      <c r="L54">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>17</v>
+      </c>
+      <c r="H55">
+        <v>215</v>
+      </c>
+      <c r="J55">
+        <v>7</v>
+      </c>
+      <c r="K55">
+        <v>128</v>
+      </c>
+      <c r="L55">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>215</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>215</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>215</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>119</v>
+      </c>
+      <c r="L4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>215</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>167</v>
+      </c>
+      <c r="H6">
+        <v>215</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>215</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>215</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>215</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>215</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>192</v>
+      </c>
+      <c r="H11">
+        <v>215</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>215</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>37</v>
+      </c>
+      <c r="L12">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>215</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>37</v>
+      </c>
+      <c r="L13">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>215</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>215</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>37</v>
+      </c>
+      <c r="L15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>215</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>37</v>
+      </c>
+      <c r="L16">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>215</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>41</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>215</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>215</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>215</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>215</v>
+      </c>
+      <c r="L20">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>176</v>
+      </c>
+      <c r="H21">
+        <v>215</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>93</v>
+      </c>
+      <c r="H22">
+        <v>215</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>48</v>
+      </c>
+      <c r="L22">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>215</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>37</v>
+      </c>
+      <c r="L23">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>215</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>135</v>
+      </c>
+      <c r="L24">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>215</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>37</v>
+      </c>
+      <c r="L25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>37</v>
+      </c>
+      <c r="G26">
+        <v>51</v>
+      </c>
+      <c r="H26">
+        <v>215</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>11</v>
+      </c>
+      <c r="L26">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>215</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>215</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>215</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>37</v>
+      </c>
+      <c r="L29">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>39</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>215</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>215</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>42</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>215</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>37</v>
+      </c>
+      <c r="L32">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>215</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>37</v>
+      </c>
+      <c r="L33">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>43</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>215</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>37</v>
+      </c>
+      <c r="L34">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>41</v>
+      </c>
+      <c r="G35">
+        <v>168</v>
+      </c>
+      <c r="H35">
+        <v>215</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>215</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>37</v>
+      </c>
+      <c r="L36">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>215</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>119</v>
+      </c>
+      <c r="L37">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>42</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>215</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+      <c r="L38">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>167</v>
+      </c>
+      <c r="H39">
+        <v>215</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>55</v>
+      </c>
+      <c r="H40">
+        <v>215</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="H41">
+        <v>215</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>37</v>
+      </c>
+      <c r="L41">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>215</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>37</v>
+      </c>
+      <c r="L42">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>62</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>215</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <v>178</v>
+      </c>
+      <c r="L43">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>215</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>37</v>
+      </c>
+      <c r="L44">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>31</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>215</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>31</v>
+      </c>
+      <c r="L45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>37</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>215</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>31</v>
+      </c>
+      <c r="L46">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-1</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>215</v>
+      </c>
+      <c r="J47">
+        <v>7</v>
+      </c>
+      <c r="K47">
+        <v>135</v>
+      </c>
+      <c r="L47">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>215</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>37</v>
+      </c>
+      <c r="L48">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="G49">
+        <v>7</v>
+      </c>
+      <c r="H49">
+        <v>215</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>31</v>
+      </c>
+      <c r="L49">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>43</v>
+      </c>
+      <c r="G50">
+        <v>167</v>
+      </c>
+      <c r="H50">
+        <v>215</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>31</v>
+      </c>
+      <c r="L50">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>215</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>79</v>
+      </c>
+      <c r="L51">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>40</v>
+      </c>
+      <c r="G52">
+        <v>164</v>
+      </c>
+      <c r="H52">
+        <v>215</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>31</v>
+      </c>
+      <c r="L52">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>35</v>
+      </c>
+      <c r="G53">
+        <v>174</v>
+      </c>
+      <c r="H53">
+        <v>215</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>31</v>
+      </c>
+      <c r="L53">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>34</v>
+      </c>
+      <c r="G54">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>215</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>37</v>
+      </c>
+      <c r="L54">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>215</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>79</v>
+      </c>
+      <c r="L55">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L55"/>
@@ -18324,13 +21872,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>57</v>
@@ -18356,7 +21904,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -18388,7 +21936,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -18420,13 +21968,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>35</v>
@@ -18452,10 +22000,10 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>16</v>
@@ -18484,13 +22032,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>41</v>
@@ -18516,13 +22064,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>41</v>
@@ -18548,13 +22096,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>43</v>
@@ -18580,13 +22128,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>43</v>
@@ -18612,13 +22160,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>59</v>
@@ -18644,13 +22192,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>15</v>
@@ -18676,13 +22224,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -18708,13 +22256,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>43</v>
@@ -18740,13 +22288,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>42</v>
@@ -18772,13 +22320,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>47</v>
@@ -18804,13 +22352,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>35</v>
@@ -18836,13 +22384,13 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>41</v>
@@ -18868,7 +22416,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -18932,13 +22480,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>43</v>
@@ -18964,13 +22512,13 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>11</v>
@@ -18996,13 +22544,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>31</v>
@@ -19060,13 +22608,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>37</v>
@@ -19092,13 +22640,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>37</v>
@@ -19124,13 +22672,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>12</v>
@@ -19156,13 +22704,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -19188,13 +22736,13 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>43</v>
@@ -19220,13 +22768,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>39</v>
@@ -19252,13 +22800,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>35</v>
@@ -19284,13 +22832,13 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>42</v>
@@ -19316,13 +22864,13 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>35</v>
@@ -19348,13 +22896,13 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>43</v>
@@ -19380,13 +22928,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>41</v>
@@ -19412,13 +22960,13 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>43</v>
@@ -19444,13 +22992,13 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>11</v>
@@ -19476,13 +23024,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>42</v>
@@ -19508,10 +23056,10 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -19540,13 +23088,13 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>13</v>
@@ -19572,13 +23120,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>35</v>
@@ -19604,13 +23152,13 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>43</v>
@@ -19636,13 +23184,13 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>62</v>
@@ -19668,13 +23216,13 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>30</v>
@@ -19700,13 +23248,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>31</v>
@@ -19732,13 +23280,13 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>37</v>
@@ -19796,13 +23344,13 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>15</v>
@@ -19828,13 +23376,13 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>42</v>
@@ -19860,13 +23408,13 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>6</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E50">
         <v>43</v>
@@ -19892,13 +23440,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>10</v>
@@ -19924,10 +23472,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -19956,13 +23504,13 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D53">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>35</v>
@@ -19988,13 +23536,13 @@
         <v>62</v>
       </c>
       <c r="B54">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>34</v>
@@ -20020,7 +23568,7 @@
         <v>63</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>1</v>
